--- a/sc_computer/Real_Value_Table_to student.xlsx
+++ b/sc_computer/Real_Value_Table_to student.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="164">
   <si>
     <t>add</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,10 +511,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zzzz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ll z</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zzzzz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzzzzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzzzzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>z</t>
     </r>
@@ -530,8 +635,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>a</t>
+    <t>zzzzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
     </r>
     <r>
       <rPr>
@@ -540,8 +649,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ll z</t>
-    </r>
+      <t>zzzz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzzzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzzzz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,8 +666,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>z</t>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcsource[1..0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluc[3..0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PC &lt;-- (PC+4)[31..28],addr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;&lt;</t>
     </r>
     <r>
       <rPr>
@@ -559,572 +696,431 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>zzzzz</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzzzzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzzzzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$31 &lt;-- PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4; PC &lt;-- (PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4)[31..28],addr &lt;&lt; 2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 0 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzzzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 0 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 1 0 0</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 1 0 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 1 1 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原部分aluc值有误，已经修正。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>zzzz</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzzzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>zzzz</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzzzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzzzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcsource[1..0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aluc[3..0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PC &lt;-- (PC+4)[31..28],addr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$31 &lt;-- PC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4; PC &lt;-- (PC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4)[31..28],addr &lt;&lt; 2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x 0 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzzzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x 0 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x 1 0 0</t>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x 1 0 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x 1 1 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,15 +1255,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,6 +1289,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1638,20 +1643,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
-        <v>164</v>
+      <c r="A1" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>151</v>
+      <c r="C1" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1675,10 +1680,10 @@
         <v>97</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>43</v>
@@ -1734,10 +1739,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>53</v>
@@ -1746,7 +1751,7 @@
         <v>51</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>52</v>
@@ -1805,10 +1810,10 @@
         <v>35</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>53</v>
@@ -1876,10 +1881,10 @@
         <v>36</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>53</v>
@@ -1888,7 +1893,7 @@
         <v>109</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>110</v>
@@ -1947,10 +1952,10 @@
         <v>37</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>53</v>
@@ -1959,7 +1964,7 @@
         <v>108</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>110</v>
@@ -2018,10 +2023,10 @@
         <v>38</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>106</v>
@@ -2030,7 +2035,7 @@
         <v>108</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>110</v>
@@ -2089,10 +2094,10 @@
         <v>39</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>53</v>
@@ -2160,10 +2165,10 @@
         <v>40</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>53</v>
@@ -2172,7 +2177,7 @@
         <v>108</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>112</v>
@@ -2231,10 +2236,10 @@
         <v>41</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>107</v>
@@ -2243,7 +2248,7 @@
         <v>108</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>54</v>
@@ -2302,10 +2307,10 @@
         <v>42</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>53</v>
@@ -2364,19 +2369,19 @@
         <v>4</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>53</v>
@@ -2385,7 +2390,7 @@
         <v>51</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>52</v>
@@ -2432,19 +2437,19 @@
         <v>4</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>53</v>
@@ -2479,6 +2484,10 @@
       <c r="V12" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="W12" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="X12" s="25"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -2500,19 +2509,19 @@
         <v>4</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>53</v>
@@ -2521,7 +2530,7 @@
         <v>108</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>110</v>
@@ -2530,7 +2539,7 @@
         <v>111</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>110</v>
@@ -2547,6 +2556,8 @@
       <c r="V13" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="W13" s="24"/>
+      <c r="X13" s="25"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
@@ -2568,19 +2579,19 @@
         <v>4</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>53</v>
@@ -2589,7 +2600,7 @@
         <v>108</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>110</v>
@@ -2636,19 +2647,19 @@
         <v>4</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>53</v>
@@ -2657,7 +2668,7 @@
         <v>108</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>110</v>
@@ -2683,10 +2694,8 @@
       <c r="V15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="W15" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="X15" s="17"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="14"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
@@ -2708,19 +2717,19 @@
         <v>4</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>53</v>
@@ -2729,7 +2738,7 @@
         <v>108</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>110</v>
@@ -2738,10 +2747,10 @@
         <v>111</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S16" s="10" t="s">
         <v>52</v>
@@ -2750,47 +2759,47 @@
         <v>53</v>
       </c>
       <c r="U16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="V16" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="V16" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="W16" s="16"/>
-      <c r="X16" s="17"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="12" t="s">
+      <c r="G17" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>126</v>
+      <c r="K17" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>52</v>
@@ -2798,95 +2807,95 @@
       <c r="M17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="12" t="s">
+      <c r="N17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="R17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="V17" s="13" t="s">
+      <c r="R17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="V17" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="9" t="s">
         <v>54</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="12" t="s">
+      <c r="G19" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>127</v>
+      <c r="K19" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>114</v>
@@ -2894,61 +2903,61 @@
       <c r="M19" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="N19" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="13" t="s">
+      <c r="N19" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="S19" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="S19" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="V19" s="13" t="s">
+      <c r="T19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="U19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="V19" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="10" t="s">
         <v>54</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
@@ -2970,19 +2979,19 @@
         <v>4</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>113</v>
@@ -2991,13 +3000,13 @@
         <v>117</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>53</v>
@@ -3009,167 +3018,163 @@
         <v>54</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>54</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="G22" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="I22" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="K22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="O22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="T22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="V22" s="15" t="s">
+      <c r="O22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V22" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="H23" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="I23" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="K23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="O23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S23" s="15" t="s">
+      <c r="O23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="T23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="V23" s="15" t="s">
+      <c r="T23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V23" s="12" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="W15:X16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I17:I18"/>
@@ -3186,17 +3191,21 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="O17:O18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
